--- a/Financials/BRK.B.xlsx
+++ b/Financials/BRK.B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2922CD-98BE-854C-ADCC-179295F4B78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14E350-1D5E-3F4C-9B36-93711365FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1937,9 +1937,11 @@
     <v>Powered by Refinitiv</v>
     <v>484.82</v>
     <v>344.29500000000002</v>
-    <v>0.87039999999999995</v>
-    <v>23.44</v>
-    <v>5.2666999999999999E-2</v>
+    <v>0.87090000000000001</v>
+    <v>-8.77</v>
+    <v>-1.8703000000000001E-2</v>
+    <v>0.37</v>
+    <v>8.0409999999999998E-4</v>
     <v>USD</v>
     <v>Berkshire Hathaway Inc. is a holding company owning subsidiaries engaged in various business activities. Its various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance; Railroad (BNSF); Berkshire Hathaway Energy (BHE); Pilot Travel Centers (PTC); Manufacturing; McLane Company (McLane), and Service and retailing. The Insurance segment includes GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group. The BNSF segment includes operation of railroad systems in North America through Burlington Northern Santa Fe, LLC. The BHE segment offers regulated electric and gas utilities. The Manufacturing segment manufacturers various products, including industrial, consumer and building products. The McLane segment is engaged in wholesale distribution of groceries and non-food items. The PTC segment is an operator of travel centers in North America and a marketer of wholesale fuel.</v>
     <v>396500</v>
@@ -1947,24 +1949,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3555 Farnam Street, OMAHA, NE, 68131 US</v>
-    <v>469.26</v>
+    <v>468.46</v>
     <v>Consumer Goods Conglomerates</v>
     <v>Stock</v>
-    <v>45602.976380253909</v>
+    <v>45604.041381666408</v>
     <v>0</v>
-    <v>459.48009999999999</v>
-    <v>958622400000</v>
+    <v>460.1</v>
+    <v>1010306000000</v>
     <v>BERKSHIRE HATHAWAY INC.</v>
     <v>BERKSHIRE HATHAWAY INC.</v>
-    <v>461</v>
-    <v>14.914099999999999</v>
-    <v>445.06</v>
-    <v>468.5</v>
+    <v>468.27</v>
+    <v>14.635199999999999</v>
+    <v>468.9</v>
+    <v>460.13</v>
+    <v>460.5</v>
     <v>1436700</v>
     <v>BRK.B</v>
     <v>BERKSHIRE HATHAWAY INC. (XNYS:BRK.B)</v>
-    <v>7159</v>
-    <v>3319976</v>
+    <v>4237986</v>
+    <v>3484112</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1996,6 +1999,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2016,6 +2021,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2032,7 +2038,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2043,13 +2049,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2115,13 +2124,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2166,6 +2181,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2173,6 +2191,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2873,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>468.5</v>
+        <v>460.13</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>2.953242144177449</v>
+        <v>3.1124645717806532</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2920,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.2666999999999999E-2</v>
+        <v>-1.8703000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>20.620413431134246</v>
+        <v>21.732151691798059</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2968,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>958622400000</v>
+        <v>1010306000000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>5.0129227107566024E-2</v>
+        <v>4.7564797200056221E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3017,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.87039999999999995</v>
+        <v>0.87090000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3050,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.72135353617261799</v>
+        <v>0.75266583725658287</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Financials/BRK.B.xlsx
+++ b/Financials/BRK.B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14E350-1D5E-3F4C-9B36-93711365FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83EF9B-4DAF-0E42-A94B-892287CB6B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1936,38 +1936,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>484.82</v>
-    <v>344.29500000000002</v>
-    <v>0.87090000000000001</v>
-    <v>-8.77</v>
-    <v>-1.8703000000000001E-2</v>
-    <v>0.37</v>
-    <v>8.0409999999999998E-4</v>
+    <v>350.85</v>
+    <v>0.87260000000000004</v>
+    <v>-3.34</v>
+    <v>-7.0730000000000003E-3</v>
+    <v>0.94</v>
+    <v>2.0050000000000003E-3</v>
     <v>USD</v>
-    <v>Berkshire Hathaway Inc. is a holding company owning subsidiaries engaged in various business activities. Its various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance; Railroad (BNSF); Berkshire Hathaway Energy (BHE); Pilot Travel Centers (PTC); Manufacturing; McLane Company (McLane), and Service and retailing. The Insurance segment includes GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group. The BNSF segment includes operation of railroad systems in North America through Burlington Northern Santa Fe, LLC. The BHE segment offers regulated electric and gas utilities. The Manufacturing segment manufacturers various products, including industrial, consumer and building products. The McLane segment is engaged in wholesale distribution of groceries and non-food items. The PTC segment is an operator of travel centers in North America and a marketer of wholesale fuel.</v>
+    <v>Berkshire Hathaway Inc. and its subsidiaries are engaged in diverse business activities, including insurance and reinsurance, utilities and energy, freight rail transportation, manufacturing, services and retailing. The Company’s segments include Insurance; Railroad (BNSF); Berkshire Hathaway Energy (BHE); Pilot Travel Centers (Pilot); Manufacturing; McLane Company (McLane), and Service and retailing. The Insurance segment includes GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group. The BNSF segment includes operation of railroad systems in North America through Burlington Northern Santa Fe, LLC. The BHE segment offers regulated electric and gas utilities. The Manufacturing segment manufacturers various products, including industrial, consumer and building products. The McLane segment is engaged in wholesale distribution of groceries and non-food items. The Pilot segment is an operator of travel centers in North America and a marketer of wholesale fuel.</v>
     <v>396500</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3555 Farnam Street, OMAHA, NE, 68131 US</v>
-    <v>468.46</v>
+    <v>470.77</v>
     <v>Consumer Goods Conglomerates</v>
     <v>Stock</v>
-    <v>45604.041381666408</v>
+    <v>45616.041555821095</v>
     <v>0</v>
-    <v>460.1</v>
-    <v>1010306000000</v>
+    <v>465.01</v>
+    <v>1018092000000</v>
     <v>BERKSHIRE HATHAWAY INC.</v>
     <v>BERKSHIRE HATHAWAY INC.</v>
-    <v>468.27</v>
-    <v>14.635199999999999</v>
-    <v>468.9</v>
-    <v>460.13</v>
-    <v>460.5</v>
-    <v>1436700</v>
+    <v>470.77</v>
+    <v>9.4718999999999998</v>
+    <v>472.2</v>
+    <v>468.86</v>
+    <v>469.8</v>
+    <v>1437610</v>
     <v>BRK.B</v>
     <v>BERKSHIRE HATHAWAY INC. (XNYS:BRK.B)</v>
-    <v>4237986</v>
-    <v>3484112</v>
+    <v>3656243</v>
+    <v>3892294</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2894,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>460.13</v>
+        <v>468.86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>3.1124645717806532</v>
+        <v>3.1364510166358595</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2941,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.8703000000000001E-2</v>
+        <v>-7.0730000000000003E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>21.732151691798059</v>
+        <v>21.899632171051216</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2989,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>1010306000000</v>
+        <v>1018092000000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>4.7564797200056221E-2</v>
+        <v>4.7201038805923239E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3038,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.87090000000000001</v>
+        <v>0.87260000000000004</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.75266583725658287</v>
+        <v>0.72003184681327359</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3750,7 +3750,7 @@
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
-        <v>Berkshire Hathaway Inc. is a holding company owning subsidiaries engaged in various business activities. Its various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance; Railroad (BNSF); Berkshire Hathaway Energy (BHE); Pilot Travel Centers (PTC); Manufacturing; McLane Company (McLane), and Service and retailing. The Insurance segment includes GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group. The BNSF segment includes operation of railroad systems in North America through Burlington Northern Santa Fe, LLC. The BHE segment offers regulated electric and gas utilities. The Manufacturing segment manufacturers various products, including industrial, consumer and building products. The McLane segment is engaged in wholesale distribution of groceries and non-food items. The PTC segment is an operator of travel centers in North America and a marketer of wholesale fuel.</v>
+        <v>Berkshire Hathaway Inc. and its subsidiaries are engaged in diverse business activities, including insurance and reinsurance, utilities and energy, freight rail transportation, manufacturing, services and retailing. The Company’s segments include Insurance; Railroad (BNSF); Berkshire Hathaway Energy (BHE); Pilot Travel Centers (Pilot); Manufacturing; McLane Company (McLane), and Service and retailing. The Insurance segment includes GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group. The BNSF segment includes operation of railroad systems in North America through Burlington Northern Santa Fe, LLC. The BHE segment offers regulated electric and gas utilities. The Manufacturing segment manufacturers various products, including industrial, consumer and building products. The McLane segment is engaged in wholesale distribution of groceries and non-food items. The Pilot segment is an operator of travel centers in North America and a marketer of wholesale fuel.</v>
       </c>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
